--- a/Data/Transitions/19461956Translation.xlsx
+++ b/Data/Transitions/19461956Translation.xlsx
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -196,7 +196,7 @@
     <t>{91.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 1.0, 858.0: 0.11116858391946506}</t>
+    <t>{92.0: 1.0, 858.0: 0.10346854860717557}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9760645363772565}</t>
+    <t>{97.0: 0.9760863386099149}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,10 +256,10 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
   </si>
   <si>
     <t>{145.0: 0.999343975508419}</t>
@@ -328,7 +328,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.011662928548542133}</t>
@@ -349,16 +349,16 @@
     <t>{184.0: 0.9937868903386144}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,7 +457,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -469,16 +469,19 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.3665829731478953}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.26046723041719105}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,7 +526,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 1.0, 79.0: 0.0006519967400162999}</t>
+    <t>{262.0: 1.0, 79.0: 0.0006238303181534623}</t>
   </si>
   <si>
     <t>{263.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
@@ -580,7 +583,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946}</t>
@@ -646,7 +649,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{312.0: 1.0, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688, 226.0: 0.0002714072465734835}</t>
@@ -667,16 +670,13 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937}</t>
+    <t>{400.0: 0.9383618695048589}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -688,7 +688,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.3609253569492138}</t>
+    <t>{404.0: 0.5163452332102312}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -739,7 +739,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
@@ -754,10 +754,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.26721824686940965, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7327817531305904}</t>
+    <t>{428.0: 0.21205489175440673, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7879451082455933}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -847,7 +847,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0}</t>
@@ -916,7 +916,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,10 +928,10 @@
     <t>{540.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,7 +985,7 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
@@ -997,7 +997,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.45294474802671525}</t>
+    <t>{583.0: 0.5739952718676123}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1015,7 +1015,7 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,16 +1024,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599}</t>
+    <t>{593.0: 0.49682353666810586}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1066,7 +1066,7 @@
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0}</t>
@@ -1123,7 +1123,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
+    <t>{627.0: 0.432346990389479}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -1153,13 +1153,13 @@
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9970133043714363, 481.0: 0.018476791347453808}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003, 171.0: 0.004749218116529595}</t>
+    <t>{681.0: 0.9819650489176246, 171.0: 0.004749218116529595}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1207,10 +1207,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17918043031872155}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8208195696812784}</t>
+    <t>{698.0: 0.41478628942427037}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5852137105757296}</t>
   </si>
   <si>
     <t>{700.0: 0.305947407722146}</t>
@@ -1264,16 +1264,16 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.5470552519732848}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.4260047281323877}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1372,7 +1372,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06458457458327624}</t>
+    <t>{858.0: 0.31088152297049804}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583}</t>
+    <t>{861.0: 0.6849891000612596}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1531,10 +1531,10 @@
     <t>{909.0: 0.9474228008305655}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1615,7 +1615,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.5758266818700114}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.4241733181299886}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.6615788941675933}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.33842110583240675}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{4.0: 0.9952675646159447, 496.0: 0.004732435384055333}</t>
@@ -1768,7 +1768,7 @@
     <t>{173.0: 0.9522334680676459, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414902, 420.0: 0.00800668517061382, 831.0: 0.001466275659824047}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.9929281939695369, 180.0: 0.007071806030463164}</t>
@@ -1834,7 +1834,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -2056,7 +2056,7 @@
     <t>{778.0: 0.996226959638181, 420.0: 0.001973508240170723, 184.0: 0.0017995321216483717}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2146,7 +2146,7 @@
     <t>{940.0: 0.993161094224924, 785.0: 0.006838905775075989}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249446, 848.0: 0.19997772797505534}</t>
+    <t>{943.0: 0.7700641420657478, 848.0: 0.22993585793425228}</t>
   </si>
   <si>
     <t>{975.0: 0.9378134403209629, 152.0: 0.062186559679037114}</t>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4185,40 +4185,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>588</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>599</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4273,29 +4273,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>600</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4339,51 +4339,51 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>601</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>601</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>602</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>602</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4394,62 +4394,62 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>603</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>605</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4471,51 +4471,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>606</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>606</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>607</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4526,40 +4526,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>608</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4570,40 +4570,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>610</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>611</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4680,51 +4680,51 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>612</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4735,29 +4735,29 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>615</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>615</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4768,29 +4768,29 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>616</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4812,40 +4812,40 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>589</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
